--- a/Manipulating/manipulating_test_cases.xlsx
+++ b/Manipulating/manipulating_test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henly\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henly\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF771A2-0E16-4F9E-B137-E304E9C33EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ABB9CA-4529-4E16-A058-54A633F2AD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2580" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21697" yWindow="-3578" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMatrix" sheetId="2" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>Program
 or module:</t>
@@ -332,12 +332,80 @@
   <si>
     <t>Version 3</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive test case[+])        Pressed enter without inputing any data</t>
+    </r>
+  </si>
+  <si>
+    <t>Display first string to be equal to the second one</t>
+  </si>
+  <si>
+    <t>Empty strings were entered so they were equal to each to other.</t>
+  </si>
+  <si>
+    <t>I really like  | cheese</t>
+  </si>
+  <si>
+    <t>String one is greater than 2nd</t>
+  </si>
+  <si>
+    <t>(Negative test case[-])        Entered a short string then a long string</t>
+  </si>
+  <si>
+    <t>Important | cat</t>
+  </si>
+  <si>
+    <t>String 1 is less than 2nd</t>
+  </si>
+  <si>
+    <t>The first string is longer than the second one</t>
+  </si>
+  <si>
+    <t>(Negative test case [-])Entered a long word then a short word</t>
+  </si>
+  <si>
+    <t>123456 | 123</t>
+  </si>
+  <si>
+    <t>The first string is longer than the second one but it displayed the opposite.</t>
+  </si>
+  <si>
+    <t>(Positive test case [+])    Entered a large number then a shorter one</t>
+  </si>
+  <si>
+    <t>(Positive test case [+])    Entered different characters to compare</t>
+  </si>
+  <si>
+    <t>!@#$% | ^&amp;*()_+</t>
+  </si>
+  <si>
+    <t>String one is less than 2nd</t>
+  </si>
+  <si>
+    <t>The first string is not longer than the second one.</t>
+  </si>
+  <si>
+    <t>(Positive test case [+])    Entered a long string to compare to another long string</t>
+  </si>
+  <si>
+    <t>First string is less than second string</t>
+  </si>
+  <si>
+    <t>I expected a crash because the inputs were larger than the variable.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -405,6 +473,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -712,7 +793,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,6 +935,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1142,13 +1241,13 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="9" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
@@ -1156,7 +1255,7 @@
     <col min="7" max="7" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" thickBot="1">
+    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1268,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:9" s="24" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:9" s="24" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
@@ -1184,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="3" spans="1:9" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -1208,7 +1307,7 @@
       </c>
       <c r="I3" s="33"/>
     </row>
-    <row r="4" spans="1:9" ht="63.75" customHeight="1">
+    <row r="4" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
@@ -1221,7 +1320,7 @@
       <c r="F4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="38" t="s">
@@ -1229,7 +1328,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="38.25">
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>12</v>
       </c>
@@ -1252,7 +1351,7 @@
       <c r="H5" s="38"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1374,7 @@
       <c r="H6" s="38"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="38.25">
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>12</v>
       </c>
@@ -1298,7 +1397,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="89.25">
+    <row r="8" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +1420,7 @@
       <c r="H8" s="38"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="153">
+    <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1443,7 @@
       <c r="H9" s="38"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="38.25">
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
@@ -1367,7 +1466,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="24" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:9" s="24" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>41</v>
       </c>
@@ -1382,7 +1481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="12" spans="1:9" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>5</v>
       </c>
@@ -1406,67 +1505,141 @@
       </c>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="10"/>
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="3"/>
+    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="3"/>
+    <row r="18" spans="1:9" ht="153.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" s="24" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:9" s="24" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>45</v>
       </c>
@@ -1481,7 +1654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="1:9" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +1678,7 @@
       </c>
       <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -1515,7 +1688,7 @@
       <c r="G21" s="3"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
@@ -1525,7 +1698,7 @@
       <c r="G22" s="3"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -1535,7 +1708,7 @@
       <c r="G23" s="3"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
@@ -1545,7 +1718,7 @@
       <c r="G24" s="3"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
@@ -1555,7 +1728,7 @@
       <c r="G25" s="3"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -1565,7 +1738,7 @@
       <c r="G26" s="3"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
@@ -1575,7 +1748,7 @@
       <c r="G27" s="3"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
@@ -1585,7 +1758,7 @@
       <c r="G28" s="3"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
@@ -1605,24 +1778,16 @@
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{0CEE2707-33CB-4487-A622-A58E5F4E29D5}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{F19EBA1A-01A4-40A6-BE83-0007B610E923}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{2E8D11AC-2EE6-423B-9A4B-4EF54718055B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId4"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007DA71BB3427D8A4D8C6B1D9FC83B8523" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff806a6af6c9da5df570eefd46bafc37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="871f9c32-6190-4c20-b083-b734e08baf9d" xmlns:ns3="f9e5404a-8fb4-4d07-81e3-37a7278de386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91c5258a233d7e8320f07641405ff8a3" ns2:_="" ns3:_="">
     <xsd:import namespace="871f9c32-6190-4c20-b083-b734e08baf9d"/>
@@ -1839,6 +2004,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1846,13 +2020,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{652F16FB-6691-4090-B84D-C6BCD9940500}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F834FF0F-1026-4BF3-B148-DDBD8F16EBFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="871f9c32-6190-4c20-b083-b734e08baf9d"/>
+    <ds:schemaRef ds:uri="f9e5404a-8fb4-4d07-81e3-37a7278de386"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F834FF0F-1026-4BF3-B148-DDBD8F16EBFC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{652F16FB-6691-4090-B84D-C6BCD9940500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{289DC008-C663-4947-A06E-5705869AB678}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{289DC008-C663-4947-A06E-5705869AB678}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Manipulating/manipulating_test_cases.xlsx
+++ b/Manipulating/manipulating_test_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henly\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henly\Documents\GitHub\2022-CPR101-NII-Group-01-Project\Manipulating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ABB9CA-4529-4E16-A058-54A633F2AD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F97748-A5A7-4B8A-8EC1-BD9FC49E7ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21697" yWindow="-3578" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="93">
   <si>
     <t>Program
 or module:</t>
@@ -399,6 +399,87 @@
   </si>
   <si>
     <t>I expected a crash because the inputs were larger than the variable.</t>
+  </si>
+  <si>
+    <t>Found at 0 position</t>
+  </si>
+  <si>
+    <t>(Positive test case [+])              Entered a normal string and a normal substring</t>
+  </si>
+  <si>
+    <t>I like cheese | like</t>
+  </si>
+  <si>
+    <t>Found at 2 position</t>
+  </si>
+  <si>
+    <t>(Positive test case [+])        Entered numbers instead strings</t>
+  </si>
+  <si>
+    <t>1 2 3 |  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Positive test case [+])          Entering nothing for the big string and a value in the sub string        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | 2</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>The first string was empty so nothing could have been found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Negative test case [-])          Entering nothing for the substring and a value in the big string    </t>
+  </si>
+  <si>
+    <t>There was no value in the substring so the expected result was not found but it was found at 0 position.</t>
+  </si>
+  <si>
+    <t>!@# | @</t>
+  </si>
+  <si>
+    <t>Found at 1 position</t>
+  </si>
+  <si>
+    <t>It should'nt find anything because we're trying to find something that is not there</t>
+  </si>
+  <si>
+    <t>(Negative test case [-])          Pressed enter without inputing any character</t>
+  </si>
+  <si>
+    <t>The substring is at the second position if we are not including the spaces.</t>
+  </si>
+  <si>
+    <t>The number was in the second position if we are not including the spaces.</t>
+  </si>
+  <si>
+    <t>(Negative test case [-])          Entered special characters instead of strings</t>
+  </si>
+  <si>
+    <t>The @ was in the second position and not in the first position.</t>
+  </si>
+  <si>
+    <t>(Positive test case [+]) Entered a very long big string.</t>
+  </si>
+  <si>
+    <t>Found at 85 postion</t>
+  </si>
+  <si>
+    <t>This is a very longggggggggggggggggggggggggggggggggggggggggggggggggggggggggg sentence. | .</t>
+  </si>
+  <si>
+    <t>The variables size is 80 and I expected a crash from the program but it didn’t crash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Positive test case [+])         Entered q </t>
+  </si>
+  <si>
+    <t>Program ends and prints out "*** End of Searching Strings Demo ***"</t>
   </si>
 </sst>
 </file>
@@ -513,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -550,16 +631,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -571,38 +650,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -631,21 +682,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -793,7 +829,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,13 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -822,28 +852,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -852,106 +873,103 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1238,534 +1256,627 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:9" s="24" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="36" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:9" s="19" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="21" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="38"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>1234567890</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="38"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="24" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="41" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:9" s="19" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="14" t="s">
         <v>48</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="14" t="s">
         <v>57</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="14" t="s">
         <v>57</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="14" t="s">
         <v>54</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="14" t="s">
         <v>62</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="153.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" s="24" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="36" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:9" s="19" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="3"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+    <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="3"/>
+    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="3"/>
+    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="3"/>
+    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+    <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1779,15 +1890,25 @@
     <hyperlink ref="D7" r:id="rId1" xr:uid="{0CEE2707-33CB-4487-A622-A58E5F4E29D5}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{F19EBA1A-01A4-40A6-BE83-0007B610E923}"/>
     <hyperlink ref="C17" r:id="rId3" xr:uid="{2E8D11AC-2EE6-423B-9A4B-4EF54718055B}"/>
+    <hyperlink ref="C26" r:id="rId4" xr:uid="{76606F25-B1CA-44C8-95A4-95AEA3E4AC6B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId5"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007DA71BB3427D8A4D8C6B1D9FC83B8523" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff806a6af6c9da5df570eefd46bafc37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="871f9c32-6190-4c20-b083-b734e08baf9d" xmlns:ns3="f9e5404a-8fb4-4d07-81e3-37a7278de386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91c5258a233d7e8320f07641405ff8a3" ns2:_="" ns3:_="">
     <xsd:import namespace="871f9c32-6190-4c20-b083-b734e08baf9d"/>
@@ -2004,15 +2125,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2020,6 +2132,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{652F16FB-6691-4090-B84D-C6BCD9940500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F834FF0F-1026-4BF3-B148-DDBD8F16EBFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2038,14 +2158,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{652F16FB-6691-4090-B84D-C6BCD9940500}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{289DC008-C663-4947-A06E-5705869AB678}">
   <ds:schemaRefs>
